--- a/documentation/Gantt Chart.xlsx
+++ b/documentation/Gantt Chart.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Days: / Tasks:</t>
   </si>
   <si>
     <t>11/5 Proj 3 due</t>
-  </si>
-  <si>
-    <t>11/19 Proj 4 due</t>
   </si>
   <si>
     <t>multiplayer mode</t>
@@ -43,39 +48,43 @@
     <t>more players in multiplayer mode</t>
   </si>
   <si>
-    <t>health restoration</t>
-  </si>
-  <si>
     <t>Sound effects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <color rgb="FFEA9999"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFEA9999"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -101,53 +110,87 @@
         <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAADDC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -168,13 +211,13 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3481388" y="1019175"/>
-          <a:ext cx="2324112" cy="200100"/>
+          <a:off x="2809875" y="476250"/>
+          <a:ext cx="3562350" cy="209550"/>
           <a:chOff x="3481388" y="1019175"/>
           <a:chExt cx="2324112" cy="200100"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvCxnSpPr/>
@@ -188,18 +231,18 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvCxnSpPr/>
@@ -213,18 +256,18 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvCxnSpPr/>
@@ -238,14 +281,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -267,20 +310,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="6" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="276075" y="638175"/>
-          <a:ext cx="2914800" cy="485700"/>
+          <a:off x="14354175" y="187325"/>
+          <a:ext cx="3581400" cy="422275"/>
           <a:chOff x="276075" y="638175"/>
           <a:chExt cx="2914800" cy="485700"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Shape 6"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -292,20 +335,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Shape 7"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -317,20 +360,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="8" name="Shape 8"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Shape 8"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -342,14 +385,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -371,20 +414,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="10" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2333775" y="895350"/>
-          <a:ext cx="1514175" cy="180975"/>
+          <a:off x="17649825" y="628650"/>
+          <a:ext cx="914400" cy="238125"/>
           <a:chOff x="2333775" y="895350"/>
           <a:chExt cx="1514175" cy="180975"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Shape 9"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -394,24 +437,24 @@
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="10" name="Shape 10"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="Shape 10"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -423,20 +466,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="Shape 11"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Shape 11"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -448,14 +491,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -477,20 +520,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="14" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2257425" y="304800"/>
-          <a:ext cx="600000" cy="333300"/>
+          <a:off x="17659350" y="704850"/>
+          <a:ext cx="923925" cy="333375"/>
           <a:chOff x="2257425" y="304800"/>
           <a:chExt cx="600000" cy="333300"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="Shape 12"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="Shape 12"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -502,20 +545,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Shape 13"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Shape 13"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -527,20 +570,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Shape 14"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="Shape 14"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -552,14 +595,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -581,20 +624,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="18" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2228775" y="819150"/>
-          <a:ext cx="914475" cy="266700"/>
+          <a:off x="22069425" y="819150"/>
+          <a:ext cx="904875" cy="447675"/>
           <a:chOff x="2228775" y="819150"/>
           <a:chExt cx="914475" cy="266700"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="Shape 15"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="19" name="Shape 15"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -604,24 +647,24 @@
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd fmla="val 50000" name="adj1"/>
+              <a:gd name="adj1" fmla="val 50000"/>
             </a:avLst>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="Shape 16"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="20" name="Shape 16"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -633,20 +676,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="17" name="Shape 17"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="21" name="Shape 17"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -658,14 +701,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -687,20 +730,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="22" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2009625" y="857250"/>
-          <a:ext cx="2448000" cy="885900"/>
+          <a:off x="14363700" y="266700"/>
+          <a:ext cx="4191000" cy="1152525"/>
           <a:chOff x="2009625" y="857250"/>
           <a:chExt cx="2448000" cy="885900"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="18" name="Shape 18"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Shape 18"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -712,20 +755,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="Shape 19"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Shape 19"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -737,20 +780,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="20" name="Shape 20"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="Shape 20"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -762,14 +805,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -787,24 +830,24 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="26" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2752725" y="895350"/>
-          <a:ext cx="1924200" cy="971700"/>
+          <a:off x="17687925" y="657225"/>
+          <a:ext cx="4171950" cy="866775"/>
           <a:chOff x="2752725" y="895350"/>
           <a:chExt cx="1924200" cy="971700"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="Shape 21"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Shape 21"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -816,20 +859,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Shape 22"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="Shape 22"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -841,24 +884,24 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="Shape 23"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" rot="10800000">
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="29" name="Shape 23"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipH="1">
             <a:off x="3067125" y="1847850"/>
             <a:ext cx="1609800" cy="19200"/>
           </a:xfrm>
@@ -866,14 +909,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -890,25 +933,25 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="30" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1542900" y="1095375"/>
-          <a:ext cx="2476800" cy="1000200"/>
+          <a:off x="17697450" y="742950"/>
+          <a:ext cx="876300" cy="971550"/>
           <a:chOff x="1542900" y="1095375"/>
           <a:chExt cx="2476800" cy="1000200"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="24" name="Shape 24"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Shape 24"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -920,20 +963,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="25" name="Shape 25"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="32" name="Shape 25"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -945,20 +988,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="Shape 26"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Shape 26"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -970,14 +1013,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -994,25 +1037,25 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="Drawing"/>
+        <xdr:cNvPr id="34" name="Shape 2" title="Drawing"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2514675" y="381000"/>
-          <a:ext cx="809400" cy="1552500"/>
+          <a:off x="17649825" y="504825"/>
+          <a:ext cx="904875" cy="1143000"/>
           <a:chOff x="2514675" y="381000"/>
           <a:chExt cx="809400" cy="1552500"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="Shape 27"/>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="35" name="Shape 27"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1024,20 +1067,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="none"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="Shape 28"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="none" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Shape 28"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1049,20 +1092,20 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:cxnSp>
-      <xdr:cxnSp>
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="Shape 29"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="Shape 29"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -1074,14 +1117,14 @@
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln cap="flat" cmpd="sng" w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-            <a:headEnd len="lg" w="lg" type="none"/>
-            <a:tailEnd len="lg" w="lg" type="triangle"/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd type="none" w="lg" len="lg"/>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
           </a:ln>
         </xdr:spPr>
       </xdr:cxnSp>
@@ -1091,110 +1134,464 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.43"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:40" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>43031.0</v>
+        <v>43031</v>
       </c>
       <c r="C1" s="2">
-        <v>43032.0</v>
+        <v>43032</v>
       </c>
       <c r="D1" s="2">
-        <v>43033.0</v>
+        <v>43033</v>
       </c>
       <c r="E1" s="2">
-        <v>43034.0</v>
+        <v>43034</v>
       </c>
       <c r="F1" s="2">
-        <v>43035.0</v>
+        <v>43035</v>
       </c>
       <c r="G1" s="2">
-        <v>43036.0</v>
+        <v>43036</v>
       </c>
       <c r="H1" s="2">
-        <v>43037.0</v>
+        <v>43037</v>
       </c>
       <c r="I1" s="2">
-        <v>43038.0</v>
+        <v>43038</v>
       </c>
       <c r="J1" s="2">
-        <v>43039.0</v>
+        <v>43039</v>
       </c>
       <c r="K1" s="2">
-        <v>43040.0</v>
+        <v>43040</v>
       </c>
       <c r="L1" s="2">
-        <v>43041.0</v>
+        <v>43041</v>
       </c>
       <c r="M1" s="2">
-        <v>43042.0</v>
+        <v>43042</v>
       </c>
       <c r="N1" s="2">
-        <v>43043.0</v>
+        <v>43043</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="2">
-        <v>43045.0</v>
+        <v>43045</v>
       </c>
       <c r="Q1" s="2">
-        <v>43046.0</v>
+        <v>43046</v>
       </c>
       <c r="R1" s="2">
-        <v>43047.0</v>
+        <v>43047</v>
       </c>
       <c r="S1" s="2">
-        <v>43048.0</v>
+        <v>43048</v>
       </c>
       <c r="T1" s="2">
-        <v>43049.0</v>
+        <v>43049</v>
       </c>
       <c r="U1" s="2">
-        <v>43050.0</v>
+        <v>43050</v>
       </c>
       <c r="V1" s="2">
-        <v>43051.0</v>
+        <v>43051</v>
       </c>
       <c r="W1" s="2">
-        <v>43052.0</v>
+        <v>43052</v>
       </c>
       <c r="X1" s="2">
-        <v>43053.0</v>
+        <v>43053</v>
       </c>
       <c r="Y1" s="2">
-        <v>43054.0</v>
+        <v>43054</v>
       </c>
       <c r="Z1" s="2">
-        <v>43055.0</v>
+        <v>43055</v>
       </c>
       <c r="AA1" s="2">
-        <v>43056.0</v>
+        <v>43056</v>
       </c>
       <c r="AB1" s="2">
-        <v>43057.0</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+        <v>43057</v>
+      </c>
+      <c r="AC1" s="10">
+        <v>43058</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>43059</v>
+      </c>
+      <c r="AE1" s="11">
+        <v>43060</v>
+      </c>
+      <c r="AF1" s="12">
+        <v>43061</v>
+      </c>
+      <c r="AG1" s="12">
+        <v>43062</v>
+      </c>
+      <c r="AH1" s="12">
+        <v>43063</v>
+      </c>
+      <c r="AI1" s="12">
+        <v>43064</v>
+      </c>
+      <c r="AJ1" s="12">
+        <v>43065</v>
+      </c>
+      <c r="AK1" s="12">
+        <v>43066</v>
+      </c>
+      <c r="AL1" s="12">
+        <v>43067</v>
+      </c>
+      <c r="AM1" s="12">
+        <v>43068</v>
+      </c>
+      <c r="AN1" s="12">
+        <v>43069</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1208,9 +1605,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:40" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1225,9 +1622,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1242,42 +1639,65 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:40" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:40" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+    </row>
+    <row r="7" spans="1:40" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:40" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -1290,50 +1710,47 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:40" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AE1">
+  <conditionalFormatting sqref="A1:AE1 A1:A999">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1000">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>